--- a/medicine/Autisme/Richard_Wawro/Richard_Wawro.xlsx
+++ b/medicine/Autisme/Richard_Wawro/Richard_Wawro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Wawro (14 avril 1952 – 22 février 2006) était un artiste écossais remarquable pour ses paysages au pastel à l'huile. Il est autiste savant.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wawro est né dans la famille de Tadeusz et Olive Wawro. Son père est un officier militaire polonais et ingénieur civil qui s'est installé à Fife et devient bibliothécaire. Sa mère est une enseignante écossaise.
 Richard est diagnostiqué comme "modérément à sévèrement retardé" à l'âge de trois ans, et plus tard, il est reconnu autiste. Il n'a pas appris à parler avant l'âge de 11 ans, et ses yeux ont été opérés de la cataracte, qui lui laisse suffisamment de problèmes de vue pour considéré légalement comme aveugle.
@@ -550,7 +564,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wawro travaille avec le medium inhabituel du pastel à l'huile, se spécialisant dans les paysages terrestres et marins qui sont reconnus pour leurs représentations très détaillées et dramatiques, colorées, et d'une intense profondeur. Il n'a pas utilisé les modèles, mais il a dessiné à partir d'images vues qu'une seule fois, dans les livres ou à la télévision ; sa mémoire phénoménale lui a permis de se souvenir où de chaque endroit où la photo avait été prise ainsi que son jour précis. Bien que possédant une mémoire parfaite, il a souvent ajouté sa propre touche à l'image. Il a été particulièrement inspiré par la lumière et les tons qu'il a utilisé pour capturer la lumière et les ombres.
 </t>
